--- a/biology/Histoire de la zoologie et de la botanique/Juan_Arturo_Rivero/Juan_Arturo_Rivero.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Juan_Arturo_Rivero/Juan_Arturo_Rivero.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Juan Arturo Rivero né le 5 mars 1923 à Santurce et mort le 3 mars 2014[1], est un zoologiste et herpétologiste portoricain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juan Arturo Rivero né le 5 mars 1923 à Santurce et mort le 3 mars 2014, est un zoologiste et herpétologiste portoricain.
 Il a découvert près de 120 espèces d'amphibiens et un lézard.
 Il est également fondateur du zoo de Mayagüez, l'unique zoo de Porto-Rico, qui possède aujourd'hui une collection considérable d'animaux de tous les continents. En 1998, le zoo a été renommé Zoo Dr. Juan A. Rivero en son honneur.
 Pendant 14 ans, il a animé une émission de vulgarisation scientifique sur une télévision locale.
@@ -514,7 +526,9 @@
           <t>Espèces nommées en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Glomeridesmus riveroi Chamberlin, 1950
 Ballophilus riveroi Chamberlin, 1950
@@ -557,7 +571,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Anolis occultus Williams &amp; Rivero, 1965
